--- a/Data_frame/balancos_definitivos/VITT3.xlsx
+++ b/Data_frame/balancos_definitivos/VITT3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q80"/>
+  <dimension ref="A1:T80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,6 +519,21 @@
           <t>30/09/2023</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>31/03/2024</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>30/06/2024</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -574,6 +589,15 @@
       <c r="Q2" t="n">
         <v>916569.024</v>
       </c>
+      <c r="R2" t="n">
+        <v>925756.992</v>
+      </c>
+      <c r="S2" t="n">
+        <v>917881.9840000001</v>
+      </c>
+      <c r="T2" t="n">
+        <v>847132.992</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -629,6 +653,15 @@
       <c r="Q3" t="n">
         <v>573902.976</v>
       </c>
+      <c r="R3" t="n">
+        <v>571633.024</v>
+      </c>
+      <c r="S3" t="n">
+        <v>563324.992</v>
+      </c>
+      <c r="T3" t="n">
+        <v>476673.984</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -684,6 +717,15 @@
       <c r="Q4" t="n">
         <v>65150</v>
       </c>
+      <c r="R4" t="n">
+        <v>82829</v>
+      </c>
+      <c r="S4" t="n">
+        <v>17640</v>
+      </c>
+      <c r="T4" t="n">
+        <v>38793</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -739,6 +781,15 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>70</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2301</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -794,6 +845,15 @@
       <c r="Q6" t="n">
         <v>282759.008</v>
       </c>
+      <c r="R6" t="n">
+        <v>304176.992</v>
+      </c>
+      <c r="S6" t="n">
+        <v>346944.992</v>
+      </c>
+      <c r="T6" t="n">
+        <v>182066</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -849,6 +909,15 @@
       <c r="Q7" t="n">
         <v>197524.992</v>
       </c>
+      <c r="R7" t="n">
+        <v>154336.992</v>
+      </c>
+      <c r="S7" t="n">
+        <v>168791.008</v>
+      </c>
+      <c r="T7" t="n">
+        <v>212294</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -904,6 +973,15 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -959,6 +1037,15 @@
       <c r="Q9" t="n">
         <v>15522</v>
       </c>
+      <c r="R9" t="n">
+        <v>11496</v>
+      </c>
+      <c r="S9" t="n">
+        <v>9828</v>
+      </c>
+      <c r="T9" t="n">
+        <v>12519</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1014,6 +1101,15 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1069,6 +1165,15 @@
       <c r="Q11" t="n">
         <v>12947</v>
       </c>
+      <c r="R11" t="n">
+        <v>18794</v>
+      </c>
+      <c r="S11" t="n">
+        <v>20051</v>
+      </c>
+      <c r="T11" t="n">
+        <v>28701</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1124,6 +1229,15 @@
       <c r="Q12" t="n">
         <v>23266</v>
       </c>
+      <c r="R12" t="n">
+        <v>27480</v>
+      </c>
+      <c r="S12" t="n">
+        <v>25922</v>
+      </c>
+      <c r="T12" t="n">
+        <v>37124</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1179,6 +1293,15 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1234,6 +1357,15 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1289,6 +1421,15 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1344,6 +1485,15 @@
       <c r="Q16" t="n">
         <v>4754</v>
       </c>
+      <c r="R16" t="n">
+        <v>1808</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3065</v>
+      </c>
+      <c r="T16" t="n">
+        <v>7634</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1399,6 +1549,15 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1454,6 +1613,15 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1509,6 +1677,15 @@
       <c r="Q19" t="n">
         <v>12142</v>
       </c>
+      <c r="R19" t="n">
+        <v>15630</v>
+      </c>
+      <c r="S19" t="n">
+        <v>16306</v>
+      </c>
+      <c r="T19" t="n">
+        <v>25172</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1564,6 +1741,15 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1619,6 +1805,15 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1674,6 +1869,15 @@
       <c r="Q22" t="n">
         <v>263</v>
       </c>
+      <c r="R22" t="n">
+        <v>256</v>
+      </c>
+      <c r="S22" t="n">
+        <v>253</v>
+      </c>
+      <c r="T22" t="n">
+        <v>255</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1729,6 +1933,15 @@
       <c r="Q23" t="n">
         <v>301236.992</v>
       </c>
+      <c r="R23" t="n">
+        <v>308955.008</v>
+      </c>
+      <c r="S23" t="n">
+        <v>311688.992</v>
+      </c>
+      <c r="T23" t="n">
+        <v>316788.992</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1784,6 +1997,15 @@
       <c r="Q24" t="n">
         <v>17900</v>
       </c>
+      <c r="R24" t="n">
+        <v>17433</v>
+      </c>
+      <c r="S24" t="n">
+        <v>16693</v>
+      </c>
+      <c r="T24" t="n">
+        <v>16291</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1839,6 +2061,15 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1894,6 +2125,15 @@
       <c r="Q26" t="n">
         <v>916569.024</v>
       </c>
+      <c r="R26" t="n">
+        <v>925756.992</v>
+      </c>
+      <c r="S26" t="n">
+        <v>917881.9840000001</v>
+      </c>
+      <c r="T26" t="n">
+        <v>847132.992</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1949,6 +2189,15 @@
       <c r="Q27" t="n">
         <v>214644</v>
       </c>
+      <c r="R27" t="n">
+        <v>277656.992</v>
+      </c>
+      <c r="S27" t="n">
+        <v>285696</v>
+      </c>
+      <c r="T27" t="n">
+        <v>194514</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2004,6 +2253,15 @@
       <c r="Q28" t="n">
         <v>21461</v>
       </c>
+      <c r="R28" t="n">
+        <v>17908</v>
+      </c>
+      <c r="S28" t="n">
+        <v>19852</v>
+      </c>
+      <c r="T28" t="n">
+        <v>25874</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2059,6 +2317,15 @@
       <c r="Q29" t="n">
         <v>32490</v>
       </c>
+      <c r="R29" t="n">
+        <v>16734</v>
+      </c>
+      <c r="S29" t="n">
+        <v>34882</v>
+      </c>
+      <c r="T29" t="n">
+        <v>28347</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2114,6 +2381,15 @@
       <c r="Q30" t="n">
         <v>5627</v>
       </c>
+      <c r="R30" t="n">
+        <v>4434</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1445</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1841</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2169,6 +2445,15 @@
       <c r="Q31" t="n">
         <v>115671</v>
       </c>
+      <c r="R31" t="n">
+        <v>172147.008</v>
+      </c>
+      <c r="S31" t="n">
+        <v>195492.992</v>
+      </c>
+      <c r="T31" t="n">
+        <v>108903</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2224,6 +2509,15 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2279,6 +2573,15 @@
       <c r="Q33" t="n">
         <v>106</v>
       </c>
+      <c r="R33" t="n">
+        <v>38297</v>
+      </c>
+      <c r="S33" t="n">
+        <v>15809</v>
+      </c>
+      <c r="T33" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2334,6 +2637,15 @@
       <c r="Q34" t="n">
         <v>39289</v>
       </c>
+      <c r="R34" t="n">
+        <v>28137</v>
+      </c>
+      <c r="S34" t="n">
+        <v>18215</v>
+      </c>
+      <c r="T34" t="n">
+        <v>29443</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2389,6 +2701,15 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2444,6 +2765,15 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2499,6 +2829,15 @@
       <c r="Q37" t="n">
         <v>83417</v>
       </c>
+      <c r="R37" t="n">
+        <v>27728</v>
+      </c>
+      <c r="S37" t="n">
+        <v>26999</v>
+      </c>
+      <c r="T37" t="n">
+        <v>80725</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2554,6 +2893,15 @@
       <c r="Q38" t="n">
         <v>83078</v>
       </c>
+      <c r="R38" t="n">
+        <v>27391</v>
+      </c>
+      <c r="S38" t="n">
+        <v>26731</v>
+      </c>
+      <c r="T38" t="n">
+        <v>80138</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2609,6 +2957,15 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2664,6 +3021,15 @@
       <c r="Q40" t="n">
         <v>291</v>
       </c>
+      <c r="R40" t="n">
+        <v>289</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2719,6 +3085,15 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2774,6 +3149,15 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2829,6 +3213,15 @@
       <c r="Q43" t="n">
         <v>48</v>
       </c>
+      <c r="R43" t="n">
+        <v>48</v>
+      </c>
+      <c r="S43" t="n">
+        <v>268</v>
+      </c>
+      <c r="T43" t="n">
+        <v>587</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2884,6 +3277,15 @@
       <c r="Q44" t="n">
         <v>0</v>
       </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2939,6 +3341,15 @@
       <c r="Q45" t="n">
         <v>0</v>
       </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2994,6 +3405,15 @@
       <c r="Q46" t="n">
         <v>80</v>
       </c>
+      <c r="R46" t="n">
+        <v>2</v>
+      </c>
+      <c r="S46" t="n">
+        <v>94</v>
+      </c>
+      <c r="T46" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3049,6 +3469,15 @@
       <c r="Q47" t="n">
         <v>618428.032</v>
       </c>
+      <c r="R47" t="n">
+        <v>620369.968</v>
+      </c>
+      <c r="S47" t="n">
+        <v>605093.008</v>
+      </c>
+      <c r="T47" t="n">
+        <v>571825.0159999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3104,6 +3533,15 @@
       <c r="Q48" t="n">
         <v>255208.992</v>
       </c>
+      <c r="R48" t="n">
+        <v>255208.992</v>
+      </c>
+      <c r="S48" t="n">
+        <v>465640.992</v>
+      </c>
+      <c r="T48" t="n">
+        <v>465640.992</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3159,6 +3597,15 @@
       <c r="Q49" t="n">
         <v>-9055</v>
       </c>
+      <c r="R49" t="n">
+        <v>-10203</v>
+      </c>
+      <c r="S49" t="n">
+        <v>-5381</v>
+      </c>
+      <c r="T49" t="n">
+        <v>-21392</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3214,6 +3661,15 @@
       <c r="Q50" t="n">
         <v>1803</v>
       </c>
+      <c r="R50" t="n">
+        <v>1768</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1711</v>
+      </c>
+      <c r="T50" t="n">
+        <v>2129</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3269,6 +3725,15 @@
       <c r="Q51" t="n">
         <v>314427.008</v>
       </c>
+      <c r="R51" t="n">
+        <v>373596</v>
+      </c>
+      <c r="S51" t="n">
+        <v>142311.008</v>
+      </c>
+      <c r="T51" t="n">
+        <v>142311.008</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3324,6 +3789,15 @@
       <c r="Q52" t="n">
         <v>56044</v>
       </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>811</v>
+      </c>
+      <c r="T52" t="n">
+        <v>-16864</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3379,6 +3853,15 @@
       <c r="Q53" t="n">
         <v>0</v>
       </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3434,6 +3917,15 @@
       <c r="Q54" t="n">
         <v>0</v>
       </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3489,6 +3981,15 @@
       <c r="Q55" t="n">
         <v>0</v>
       </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3542,6 +4043,15 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3567,6 +4077,9 @@
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3590,6 +4103,9 @@
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3643,6 +4159,15 @@
       <c r="Q59" t="n">
         <v>291388.992</v>
       </c>
+      <c r="R59" t="n">
+        <v>243298</v>
+      </c>
+      <c r="S59" t="n">
+        <v>121559</v>
+      </c>
+      <c r="T59" t="n">
+        <v>99893</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3696,6 +4221,15 @@
       <c r="Q60" t="n">
         <v>-170371.008</v>
       </c>
+      <c r="R60" t="n">
+        <v>-157476.976</v>
+      </c>
+      <c r="S60" t="n">
+        <v>-77523</v>
+      </c>
+      <c r="T60" t="n">
+        <v>-82524</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3749,6 +4283,15 @@
       <c r="Q61" t="n">
         <v>121018</v>
       </c>
+      <c r="R61" t="n">
+        <v>85821.008</v>
+      </c>
+      <c r="S61" t="n">
+        <v>44036</v>
+      </c>
+      <c r="T61" t="n">
+        <v>17369</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3802,6 +4345,15 @@
       <c r="Q62" t="n">
         <v>-22209</v>
       </c>
+      <c r="R62" t="n">
+        <v>-26340</v>
+      </c>
+      <c r="S62" t="n">
+        <v>-20669</v>
+      </c>
+      <c r="T62" t="n">
+        <v>-17622</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3855,6 +4407,15 @@
       <c r="Q63" t="n">
         <v>-23300</v>
       </c>
+      <c r="R63" t="n">
+        <v>-28012</v>
+      </c>
+      <c r="S63" t="n">
+        <v>-25356</v>
+      </c>
+      <c r="T63" t="n">
+        <v>-27129</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3908,6 +4469,15 @@
       <c r="Q64" t="n">
         <v>-523</v>
       </c>
+      <c r="R64" t="n">
+        <v>1830</v>
+      </c>
+      <c r="S64" t="n">
+        <v>289</v>
+      </c>
+      <c r="T64" t="n">
+        <v>990</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3960,6 +4530,15 @@
       </c>
       <c r="Q65" t="n">
         <v>30</v>
+      </c>
+      <c r="R65" t="n">
+        <v>-60</v>
+      </c>
+      <c r="S65" t="n">
+        <v>-30</v>
+      </c>
+      <c r="T65" t="n">
+        <v>154</v>
       </c>
     </row>
     <row r="66">
@@ -4014,6 +4593,15 @@
       <c r="Q66" t="n">
         <v>0</v>
       </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4065,6 +4653,15 @@
         <v>0</v>
       </c>
       <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0</v>
+      </c>
+      <c r="T67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4120,6 +4717,15 @@
       <c r="Q68" t="n">
         <v>-296</v>
       </c>
+      <c r="R68" t="n">
+        <v>-2343</v>
+      </c>
+      <c r="S68" t="n">
+        <v>2015</v>
+      </c>
+      <c r="T68" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4173,6 +4779,15 @@
       <c r="Q69" t="n">
         <v>12574</v>
       </c>
+      <c r="R69" t="n">
+        <v>16785</v>
+      </c>
+      <c r="S69" t="n">
+        <v>8837</v>
+      </c>
+      <c r="T69" t="n">
+        <v>10900</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4225,6 +4840,15 @@
       </c>
       <c r="Q70" t="n">
         <v>-12870</v>
+      </c>
+      <c r="R70" t="n">
+        <v>-19128</v>
+      </c>
+      <c r="S70" t="n">
+        <v>-6822</v>
+      </c>
+      <c r="T70" t="n">
+        <v>-10824</v>
       </c>
     </row>
     <row r="71">
@@ -4249,6 +4873,9 @@
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4272,6 +4899,9 @@
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4295,6 +4925,9 @@
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4348,6 +4981,15 @@
       <c r="Q74" t="n">
         <v>74720</v>
       </c>
+      <c r="R74" t="n">
+        <v>30896</v>
+      </c>
+      <c r="S74" t="n">
+        <v>285</v>
+      </c>
+      <c r="T74" t="n">
+        <v>-26162</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4401,6 +5043,15 @@
       <c r="Q75" t="n">
         <v>-7918</v>
       </c>
+      <c r="R75" t="n">
+        <v>6881</v>
+      </c>
+      <c r="S75" t="n">
+        <v>-161</v>
+      </c>
+      <c r="T75" t="n">
+        <v>-413</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4453,6 +5104,15 @@
       </c>
       <c r="Q76" t="n">
         <v>-8752</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3486</v>
+      </c>
+      <c r="S76" t="n">
+        <v>676</v>
+      </c>
+      <c r="T76" t="n">
+        <v>8867</v>
       </c>
     </row>
     <row r="77">
@@ -4477,6 +5137,9 @@
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4500,6 +5163,9 @@
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4553,6 +5219,15 @@
       <c r="Q79" t="n">
         <v>-48</v>
       </c>
+      <c r="R79" t="n">
+        <v>52</v>
+      </c>
+      <c r="S79" t="n">
+        <v>11</v>
+      </c>
+      <c r="T79" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4605,6 +5280,15 @@
       </c>
       <c r="Q80" t="n">
         <v>58002</v>
+      </c>
+      <c r="R80" t="n">
+        <v>41315</v>
+      </c>
+      <c r="S80" t="n">
+        <v>811</v>
+      </c>
+      <c r="T80" t="n">
+        <v>-17675</v>
       </c>
     </row>
   </sheetData>
